--- a/project_context/leaderboard.xlsx
+++ b/project_context/leaderboard.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BrajCoders</t>
+          <t>Hacktronics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,17 +473,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BrajCoders - DEEPTI YADAV.pdf</t>
+          <t>Animal Type Classification - DEVANG SHUKLA.pdf</t>
         </is>
       </c>
     </row>
@@ -493,16 +493,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coding Pirates</t>
+          <t>Alt-Era</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>61.50</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -512,7 +512,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025CodingPirates - YASH KASAUDHAN.pdf</t>
+          <t>Alt-Era - KRISH PATHAK.pdf</t>
         </is>
       </c>
     </row>
@@ -522,16 +522,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caffeinated Coders</t>
+          <t>BenzeneCoder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>61.50</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -541,7 +541,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Caffeinated Coders - Rohnish Srivastava.pdf</t>
+          <t>BenzeneCoder - SARTHAK TIWARI.pdf</t>
         </is>
       </c>
     </row>
@@ -551,26 +551,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Algo Wizards</t>
+          <t>Angaari Paltan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>58.50</t>
+          <t>63.50</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Algo wizards - LAXMI gla.pdf</t>
+          <t>Angaari Paltan - ISHITA GOYAL.pdf</t>
         </is>
       </c>
     </row>
@@ -580,24 +580,169 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Coding Pirates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025CodingPirates - YASH KASAUDHAN.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kairos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AgriNiti - TEENA gla.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Algo Wizards</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Algo wizards - LAXMI gla.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Binary Brains</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Binary Brains - Milan Sharma.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ALT_F4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ALT_f4 - VAIBHAV KUMAR.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>AlgoYoddhas</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>46.00</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E11" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>AlgoYoddhas - ADWAIT PATEL.pdf</t>
         </is>
